--- a/biology/Zoologie/Cyprinodontiformes/Cyprinodontiformes.xlsx
+++ b/biology/Zoologie/Cyprinodontiformes/Cyprinodontiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyprinodontiformes forment un ordre de poissons à nageoires rayonnées (Actinopterygii), composé principalement de petits poissons d'eau douce. Ils sont étroitement liés aux Atheriniformes et sont parfois confondus avec eux. Cet ordre contient beaucoup de poissons d'aquarium très populaires, tels que les killies et les Poeciliidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les familles des Cyprinodontiformes peut être divisées en trois groupes: vivipare et ovovivipare (toutes les espèces donnent naissance à des alevins vivants), et ovipare (toutes les espèces pondent). Mais phylogénétiquement, l'un des deux sous-ordres (Aplocheiloidei) contient exclusivement des espèces ovipares, ainsi que deux des quatre super-familles de l'autre sous-ordre (Cyprinodontoidea et Valencioidea de Cyprinodontoidei) sont vivipares et ovovivipares ont évolué indépendamment des ancêtres ovipares.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase[1] et World Register of Marine Species                               (21 avril 2016)[2] 2 sous-ordre regroupant 10 familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase et World Register of Marine Species                               (21 avril 2016) 2 sous-ordre regroupant 10 familles :
 sous-ordre Aplocheiloidei
 famille Aplocheilidae Bleeker, 1860
 sous-ordre Cyprinodontoidei
